--- a/teaching/traditional_assets/database/data/indonesia/indonesia_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_financial_svcs_non_bank_insurance.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.102</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="E2">
-        <v>0.09244999999999999</v>
+        <v>-0.008289999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,103 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.862090256724716e-06</v>
+        <v>-0.001132104388357145</v>
       </c>
       <c r="J2">
-        <v>5.745215899885709e-06</v>
+        <v>-0.0009307165455546975</v>
       </c>
       <c r="K2">
-        <v>288.983</v>
+        <v>131.953</v>
       </c>
       <c r="L2">
-        <v>0.2347432294120514</v>
+        <v>0.1178487444191694</v>
       </c>
       <c r="M2">
-        <v>132.504</v>
+        <v>93.64800000000001</v>
       </c>
       <c r="N2">
-        <v>0.05717762502103642</v>
+        <v>0.04354910714285715</v>
       </c>
       <c r="O2">
-        <v>0.4585183211469187</v>
+        <v>0.7097072442460574</v>
       </c>
       <c r="P2">
-        <v>132.396</v>
+        <v>93.581</v>
       </c>
       <c r="Q2">
-        <v>0.05713102126943442</v>
+        <v>0.04351795014880952</v>
       </c>
       <c r="R2">
-        <v>0.4581445967409848</v>
+        <v>0.7091994876963768</v>
       </c>
       <c r="S2">
-        <v>0.108</v>
+        <v>0.067</v>
       </c>
       <c r="T2">
-        <v>0.000815069733743887</v>
+        <v>0.0007154450709038099</v>
       </c>
       <c r="U2">
-        <v>320.384</v>
+        <v>880.898</v>
       </c>
       <c r="V2">
-        <v>0.1382508921597818</v>
+        <v>0.4096437872023809</v>
       </c>
       <c r="W2">
-        <v>0.08884498825901474</v>
+        <v>0.03610753892615788</v>
       </c>
       <c r="X2">
-        <v>0.04832735988866713</v>
+        <v>0.03507881639819899</v>
       </c>
       <c r="Y2">
-        <v>0.04051762837034761</v>
+        <v>0.001028722527958888</v>
       </c>
       <c r="Z2">
-        <v>0.198167203303068</v>
+        <v>0.155594320535571</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03938661367991217</v>
+        <v>0.03340464946206448</v>
       </c>
       <c r="AC2">
-        <v>-0.03938661367991217</v>
+        <v>-0.03363023079232935</v>
       </c>
       <c r="AD2">
-        <v>5323.878</v>
+        <v>4680.972</v>
       </c>
       <c r="AE2">
-        <v>0.5577617758427823</v>
+        <v>18.93797886830058</v>
       </c>
       <c r="AF2">
-        <v>5324.435761775842</v>
+        <v>4699.909978868301</v>
       </c>
       <c r="AG2">
-        <v>5004.051761775842</v>
+        <v>3819.011978868301</v>
       </c>
       <c r="AH2">
-        <v>0.6967473471407161</v>
+        <v>0.6860871980051251</v>
       </c>
       <c r="AI2">
-        <v>0.7287113588604802</v>
+        <v>0.7041179695466906</v>
       </c>
       <c r="AJ2">
-        <v>0.6834771422151217</v>
+        <v>0.6397635131211569</v>
       </c>
       <c r="AK2">
-        <v>0.7162702933856088</v>
+        <v>0.6591331145774629</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-2.33</v>
+        <v>-3.64</v>
       </c>
       <c r="AN2">
-        <v>44365.65</v>
+        <v>1857.528571428571</v>
       </c>
       <c r="AP2">
-        <v>41700.43134813202</v>
+        <v>1515.480943995357</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.231</v>
+        <v>-0.11</v>
       </c>
       <c r="E3">
-        <v>0.33</v>
+        <v>-0.172</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.763</v>
+        <v>0.057</v>
       </c>
       <c r="L3">
-        <v>0.719811320754717</v>
+        <v>0.2126865671641791</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.48</v>
+        <v>0.437</v>
       </c>
       <c r="V3">
-        <v>0.0154006243496358</v>
+        <v>0.005239808153477218</v>
       </c>
       <c r="W3">
-        <v>0.1481553398058252</v>
+        <v>0.009105431309904153</v>
       </c>
       <c r="X3">
-        <v>0.02978521517666172</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="Y3">
-        <v>0.1183701246291635</v>
+        <v>-0.01097255675969004</v>
       </c>
       <c r="Z3">
-        <v>0.2162823913487043</v>
+        <v>0.05606694560669457</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02978521517666172</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="AC3">
-        <v>-0.02978521517666172</v>
+        <v>-0.0200779880695942</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-1.48</v>
+        <v>-0.437</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.01564151342210949</v>
+        <v>-0.005267408362764123</v>
       </c>
       <c r="AK3">
-        <v>-0.3096234309623431</v>
+        <v>-0.08256187417343661</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PT. Trust Finance Indonesia Tbk (IDX:TRUS)</t>
+          <t>PT Fuji Finance Indonesia Tbk (IDX:FUJI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -840,12 +840,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0498</v>
-      </c>
-      <c r="E4">
-        <v>0.08289999999999999</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -859,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.42</v>
+        <v>0.519</v>
       </c>
       <c r="L4">
-        <v>0.4396284829721362</v>
+        <v>0.7238493723849373</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.067</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.006203703703703703</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.1290944123314066</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -883,58 +877,61 @@
         <v>-0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.067</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>3.07</v>
+        <v>3.83</v>
       </c>
       <c r="V4">
-        <v>0.1895061728395062</v>
+        <v>0.3546296296296296</v>
       </c>
       <c r="W4">
-        <v>0.08068181818181817</v>
+        <v>0.05457413249211357</v>
       </c>
       <c r="X4">
-        <v>0.02992145081643541</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="Y4">
-        <v>0.05076036736538276</v>
+        <v>0.03449614442251937</v>
       </c>
       <c r="Z4">
-        <v>0.1772777167947311</v>
+        <v>0.139766081871345</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03009885134680329</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="AC4">
-        <v>-0.03009885134680329</v>
+        <v>-0.0200779880695942</v>
       </c>
       <c r="AD4">
-        <v>0.278</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.278</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-2.792</v>
+        <v>-3.83</v>
       </c>
       <c r="AH4">
-        <v>0.01687097948780192</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01377738130637328</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.2082338902147971</v>
+        <v>-0.5494978479196556</v>
       </c>
       <c r="AK4">
-        <v>-0.1631985036240356</v>
+        <v>-0.6580756013745704</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -951,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pt Mandala Multifinance Tbk (IDX:MFIN)</t>
+          <t>PT. Trust Finance Indonesia Tbk (IDX:TRUS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,10 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0394</v>
+        <v>0.0239</v>
       </c>
       <c r="E5">
-        <v>0.057</v>
+        <v>0.0276</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -978,85 +975,82 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>27.5</v>
+        <v>0.757</v>
       </c>
       <c r="L5">
-        <v>0.2864583333333333</v>
+        <v>0.3141078838174274</v>
       </c>
       <c r="M5">
-        <v>9.34</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.03766129032258064</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.3396363636363636</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>9.34</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.03766129032258064</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.3396363636363636</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>4.93</v>
+        <v>3.08</v>
       </c>
       <c r="V5">
-        <v>0.01987903225806452</v>
+        <v>0.1822485207100592</v>
       </c>
       <c r="W5">
-        <v>0.2097635392829901</v>
+        <v>0.03804020100502513</v>
       </c>
       <c r="X5">
-        <v>0.03422524343775944</v>
+        <v>0.02038806249559637</v>
       </c>
       <c r="Y5">
-        <v>0.1755382958452307</v>
+        <v>0.01765213850942876</v>
       </c>
       <c r="Z5">
-        <v>0.4380961073335463</v>
+        <v>0.140869768529343</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03381683225167133</v>
+        <v>0.02102297413334355</v>
       </c>
       <c r="AC5">
-        <v>-0.03381683225167133</v>
+        <v>-0.02102297413334355</v>
       </c>
       <c r="AD5">
-        <v>138.7</v>
+        <v>0.572</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>138.7</v>
+        <v>0.572</v>
       </c>
       <c r="AG5">
-        <v>133.77</v>
+        <v>-2.508</v>
       </c>
       <c r="AH5">
-        <v>0.3586759762089475</v>
+        <v>0.03273809523809524</v>
       </c>
       <c r="AI5">
-        <v>0.4714479945615228</v>
+        <v>0.02807775377969762</v>
       </c>
       <c r="AJ5">
-        <v>0.3503942164130235</v>
+        <v>-0.1742634797109505</v>
       </c>
       <c r="AK5">
-        <v>0.4624399350088153</v>
+        <v>-0.1450381679389313</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1073,7 +1067,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PT Batavia Prosperindo Finance Tbk (IDX:BPFI)</t>
+          <t>PT Radana Bhaskara Finance Tbk (IDX:HDFA)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1082,10 +1076,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.128</v>
-      </c>
-      <c r="E6">
-        <v>0.134</v>
+        <v>-0.31</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1094,103 +1085,94 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0004377018047380067</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0003470701308837484</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.94</v>
+        <v>-11.1</v>
       </c>
       <c r="L6">
-        <v>0.2559585492227979</v>
+        <v>-11.98704103671706</v>
       </c>
       <c r="M6">
-        <v>2.12</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.01261154074955384</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.4291497975708502</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.12</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.01261154074955384</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.4291497975708502</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>4.7</v>
+        <v>19.2</v>
       </c>
       <c r="V6">
-        <v>0.02795954788816181</v>
+        <v>0.3471971066907776</v>
       </c>
       <c r="W6">
-        <v>0.09481765834932822</v>
+        <v>-1.077669902912621</v>
       </c>
       <c r="X6">
-        <v>0.03297106403329444</v>
+        <v>0.02322562834669991</v>
       </c>
       <c r="Y6">
-        <v>0.06184659431603377</v>
+        <v>-1.100895531259321</v>
       </c>
       <c r="Z6">
-        <v>0.1643563643565111</v>
+        <v>0.01585616438356165</v>
       </c>
       <c r="AA6">
-        <v>5.704318488879136e-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03510899827166607</v>
+        <v>0.02655078145143178</v>
       </c>
       <c r="AC6">
-        <v>-0.03505195508677728</v>
+        <v>-0.02655078145143178</v>
       </c>
       <c r="AD6">
-        <v>66.90000000000001</v>
+        <v>19</v>
       </c>
       <c r="AE6">
-        <v>0.5577617758427823</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>67.45776177584278</v>
+        <v>19</v>
       </c>
       <c r="AG6">
-        <v>62.75776177584278</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="AH6">
-        <v>0.2863746083647871</v>
+        <v>0.2557200538358008</v>
       </c>
       <c r="AI6">
-        <v>0.5441995790294201</v>
+        <v>0.3429602888086642</v>
       </c>
       <c r="AJ6">
-        <v>0.2718460115574499</v>
+        <v>-0.00362976406533574</v>
       </c>
       <c r="AK6">
-        <v>0.5262362871927988</v>
+        <v>-0.005524861878453018</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>557.5000000000001</v>
-      </c>
-      <c r="AP6">
-        <v>522.9813481320232</v>
       </c>
     </row>
     <row r="7">
@@ -1201,7 +1183,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PT BFI Finance Indonesia Tbk (IDX:BFIN)</t>
+          <t>Pt Mandala Multifinance Tbk (IDX:MFIN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1210,10 +1192,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.233</v>
+        <v>-0.00847</v>
       </c>
       <c r="E7">
-        <v>0.226</v>
+        <v>0.0122</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1228,28 +1210,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>103.3</v>
+        <v>18.6</v>
       </c>
       <c r="L7">
-        <v>0.4204314204314205</v>
+        <v>0.2336683417085428</v>
       </c>
       <c r="M7">
-        <v>51.7</v>
+        <v>5.35</v>
       </c>
       <c r="N7">
-        <v>0.08568114020550216</v>
+        <v>0.02832186341979883</v>
       </c>
       <c r="O7">
-        <v>0.500484027105518</v>
+        <v>0.2876344086021505</v>
       </c>
       <c r="P7">
-        <v>51.7</v>
+        <v>5.35</v>
       </c>
       <c r="Q7">
-        <v>0.08568114020550216</v>
+        <v>0.02832186341979883</v>
       </c>
       <c r="R7">
-        <v>0.500484027105518</v>
+        <v>0.2876344086021505</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1258,55 +1240,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="V7">
-        <v>0.1067285382830627</v>
+        <v>0.09528851244044467</v>
       </c>
       <c r="W7">
-        <v>0.2650076962544894</v>
+        <v>0.1196141479099679</v>
       </c>
       <c r="X7">
-        <v>0.04034894064733834</v>
+        <v>0.02537882968741129</v>
       </c>
       <c r="Y7">
-        <v>0.2246587556071511</v>
+        <v>0.09423531822255657</v>
       </c>
       <c r="Z7">
-        <v>0.2023054755043228</v>
+        <v>0.275175441628928</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03620263524480294</v>
+        <v>0.02729942252297576</v>
       </c>
       <c r="AC7">
-        <v>-0.03620263524480294</v>
+        <v>-0.02729942252297576</v>
       </c>
       <c r="AD7">
-        <v>802.9</v>
+        <v>109.3</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>802.9</v>
+        <v>109.3</v>
       </c>
       <c r="AG7">
-        <v>738.5</v>
+        <v>91.3</v>
       </c>
       <c r="AH7">
-        <v>0.5709308113489299</v>
+        <v>0.3665325285043595</v>
       </c>
       <c r="AI7">
-        <v>0.6365149833518312</v>
+        <v>0.4116760828625236</v>
       </c>
       <c r="AJ7">
-        <v>0.5503390714658319</v>
+        <v>0.3258386866523911</v>
       </c>
       <c r="AK7">
-        <v>0.6169590643274854</v>
+        <v>0.3688888888888889</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1323,7 +1305,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PT Adira Dinamika Multi Finance Tbk (IDX:ADMF)</t>
+          <t>PT KDB Tifa Finance Tbk (IDX:TIFA)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1332,10 +1314,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.104</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="E8">
-        <v>0.102</v>
+        <v>-0.008289999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1350,85 +1332,82 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>132.7</v>
+        <v>1.82</v>
       </c>
       <c r="L8">
-        <v>0.307531865585168</v>
+        <v>0.3905579399141631</v>
       </c>
       <c r="M8">
-        <v>64</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.08547008547008547</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.4822908816880181</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>64</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.08547008547008547</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.4822908816880181</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>131.6</v>
+        <v>2.06</v>
       </c>
       <c r="V8">
-        <v>0.1757478632478633</v>
+        <v>0.04735632183908046</v>
       </c>
       <c r="W8">
-        <v>0.3066789923734689</v>
+        <v>0.07081712062256809</v>
       </c>
       <c r="X8">
-        <v>0.0471261385970823</v>
+        <v>0.02692262991838821</v>
       </c>
       <c r="Y8">
-        <v>0.2595528537763866</v>
+        <v>0.04389449070417988</v>
       </c>
       <c r="Z8">
-        <v>0.2415607680680736</v>
+        <v>0.05731857318573186</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03749558085247729</v>
+        <v>0.03090221093579387</v>
       </c>
       <c r="AC8">
-        <v>-0.03749558085247729</v>
+        <v>-0.03090221093579387</v>
       </c>
       <c r="AD8">
-        <v>1635.6</v>
+        <v>32.5</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1635.6</v>
+        <v>32.5</v>
       </c>
       <c r="AG8">
-        <v>1504</v>
+        <v>30.44</v>
       </c>
       <c r="AH8">
-        <v>0.6859587317564168</v>
+        <v>0.4276315789473684</v>
       </c>
       <c r="AI8">
-        <v>0.7573274065842478</v>
+        <v>0.5527210884353742</v>
       </c>
       <c r="AJ8">
-        <v>0.6676136363636364</v>
+        <v>0.4116851501217204</v>
       </c>
       <c r="AK8">
-        <v>0.7415807899018786</v>
+        <v>0.536482199506521</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1445,7 +1424,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PT Radana Bhaskara Finance Tbk (IDX:HDFA)</t>
+          <t>PT BFI Finance Indonesia Tbk (IDX:BFIN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1453,95 +1432,104 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.152</v>
+      </c>
+      <c r="E9">
+        <v>-0.261</v>
+      </c>
       <c r="G9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-18.7</v>
+        <v>9.56</v>
       </c>
       <c r="L9">
-        <v>1.626086956521739</v>
+        <v>0.0495850622406639</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>12.1</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.02005303281405369</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.265690376569037</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>12.1</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.02005303281405369</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.265690376569037</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>12.4</v>
+        <v>138.4</v>
       </c>
       <c r="V9">
-        <v>0.2171628721541156</v>
+        <v>0.229366920782234</v>
       </c>
       <c r="W9">
-        <v>-0.6584507042253521</v>
+        <v>0.02085059978189749</v>
       </c>
       <c r="X9">
-        <v>0.03819684632624185</v>
+        <v>0.02991491166877644</v>
       </c>
       <c r="Y9">
-        <v>-0.696647550551594</v>
+        <v>-0.009064311886878951</v>
       </c>
       <c r="Z9">
-        <v>-0.06279692022060832</v>
+        <v>0.1610693400167084</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03934909031434854</v>
+        <v>0.03318408852194389</v>
       </c>
       <c r="AC9">
-        <v>-0.03934909031434854</v>
+        <v>-0.03318408852194389</v>
       </c>
       <c r="AD9">
-        <v>60.5</v>
+        <v>647.9</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>60.5</v>
+        <v>647.9</v>
       </c>
       <c r="AG9">
-        <v>48.1</v>
+        <v>509.5</v>
       </c>
       <c r="AH9">
-        <v>0.5144557823129252</v>
+        <v>0.5177815072324782</v>
       </c>
       <c r="AI9">
-        <v>0.8545197740112994</v>
+        <v>0.6046663555762949</v>
       </c>
       <c r="AJ9">
-        <v>0.4572243346007605</v>
+        <v>0.457812921196873</v>
       </c>
       <c r="AK9">
-        <v>0.8236301369863013</v>
+        <v>0.5460293644839781</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1558,7 +1546,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PT. Clipan Finance Indonesia Tbk (IDX:CFIN)</t>
+          <t>PT Adira Dinamika Multi Finance Tbk (IDX:ADMF)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1570,7 +1558,7 @@
         <v>0.141</v>
       </c>
       <c r="E10">
-        <v>-0.0305</v>
+        <v>0.233</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1579,94 +1567,103 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-0.003256089837298013</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0.002372327512847796</v>
       </c>
       <c r="K10">
-        <v>23.8</v>
+        <v>101.2</v>
       </c>
       <c r="L10">
-        <v>0.2609649122807017</v>
+        <v>0.2599537631646545</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.109718353450944</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0.7005928853754941</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.109718353450944</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0.7005928853754941</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
-        <v>2.95</v>
+        <v>417.1</v>
       </c>
       <c r="V10">
-        <v>0.03545673076923077</v>
+        <v>0.6454658000619004</v>
       </c>
       <c r="W10">
-        <v>0.0833917309039944</v>
+        <v>0.1930929211982446</v>
       </c>
       <c r="X10">
-        <v>0.07757135484437976</v>
+        <v>0.04024272112762155</v>
       </c>
       <c r="Y10">
-        <v>0.005820376059614649</v>
+        <v>0.1528502000706231</v>
       </c>
       <c r="Z10">
-        <v>0.130038640868065</v>
+        <v>0.1901772238809284</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>-0.0004511626605297414</v>
       </c>
       <c r="AB10">
-        <v>0.03942413704547579</v>
+        <v>0.03362521040218507</v>
       </c>
       <c r="AC10">
-        <v>-0.03942413704547579</v>
+        <v>-0.03407637306271481</v>
       </c>
       <c r="AD10">
-        <v>500.8</v>
+        <v>1403.4</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>18.93797886830058</v>
       </c>
       <c r="AF10">
-        <v>500.8</v>
+        <v>1422.337978868301</v>
       </c>
       <c r="AG10">
-        <v>497.85</v>
+        <v>1005.237978868301</v>
       </c>
       <c r="AH10">
-        <v>0.8575342465753425</v>
+        <v>0.6876054456812358</v>
       </c>
       <c r="AI10">
-        <v>0.6065891472868217</v>
+        <v>0.7340576487353088</v>
       </c>
       <c r="AJ10">
-        <v>0.8568109457017468</v>
+        <v>0.6087046511774976</v>
       </c>
       <c r="AK10">
-        <v>0.6051783869203184</v>
+        <v>0.6611067877544727</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>556.9047619047619</v>
+      </c>
+      <c r="AP10">
+        <v>398.9039598683733</v>
       </c>
     </row>
     <row r="11">
@@ -1677,7 +1674,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PT Tifa Finance Tbk (IDX:TIFA)</t>
+          <t>PT Wahana Ottomitra Multiartha Tbk (IDX:WOMF)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1686,10 +1683,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.00676</v>
-      </c>
-      <c r="E11">
-        <v>0.0132</v>
+        <v>0.0975</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1704,28 +1698,28 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.15</v>
+        <v>10.8</v>
       </c>
       <c r="L11">
-        <v>0.4018691588785047</v>
+        <v>0.1441922563417891</v>
       </c>
       <c r="M11">
-        <v>0.533</v>
+        <v>5.2</v>
       </c>
       <c r="N11">
-        <v>0.02850267379679145</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="O11">
-        <v>0.2479069767441861</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="P11">
-        <v>0.533</v>
+        <v>5.2</v>
       </c>
       <c r="Q11">
-        <v>0.02850267379679145</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="R11">
-        <v>0.2479069767441861</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1734,55 +1728,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>72</v>
       </c>
       <c r="V11">
-        <v>0.1016042780748663</v>
+        <v>1.130298273155416</v>
       </c>
       <c r="W11">
-        <v>0.09429824561403508</v>
+        <v>0.1205357142857143</v>
       </c>
       <c r="X11">
-        <v>0.0541963063260487</v>
+        <v>0.0665603881085097</v>
       </c>
       <c r="Y11">
-        <v>0.04010193928798637</v>
+        <v>0.0539753261772046</v>
       </c>
       <c r="Z11">
-        <v>0.05585717268740865</v>
+        <v>0.1491140752538324</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.0416627202592062</v>
+        <v>0.03653623497155938</v>
       </c>
       <c r="AC11">
-        <v>-0.0416627202592062</v>
+        <v>-0.03653623497155938</v>
       </c>
       <c r="AD11">
-        <v>57.5</v>
+        <v>323.2</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>57.5</v>
+        <v>323.2</v>
       </c>
       <c r="AG11">
-        <v>55.6</v>
+        <v>251.2</v>
       </c>
       <c r="AH11">
-        <v>0.7545931758530183</v>
+        <v>0.8353579736365986</v>
       </c>
       <c r="AI11">
-        <v>0.6911057692307692</v>
+        <v>0.8007928642220019</v>
       </c>
       <c r="AJ11">
-        <v>0.7483176312247645</v>
+        <v>0.7977135598602731</v>
       </c>
       <c r="AK11">
-        <v>0.6838868388683887</v>
+        <v>0.7575392038600723</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1799,7 +1793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PT. Verena Multi Finance Tbk (IDX:VRNA)</t>
+          <t>PT. Clipan Finance Indonesia Tbk (IDX:CFIN)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1808,7 +1802,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.153</v>
+        <v>0.108</v>
+      </c>
+      <c r="E12">
+        <v>-0.137</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1823,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>-3.67</v>
+        <v>11.1</v>
       </c>
       <c r="L12">
-        <v>-0.7875536480686695</v>
+        <v>0.1419437340153453</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1835,7 +1832,7 @@
         <v>-0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1844,61 +1841,61 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>7.39</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="V12">
-        <v>0.1289703315881326</v>
+        <v>1.064083457526081</v>
       </c>
       <c r="W12">
-        <v>-0.1872448979591836</v>
+        <v>0.03417487684729064</v>
       </c>
       <c r="X12">
-        <v>0.04952858118025197</v>
+        <v>0.07328446583580478</v>
       </c>
       <c r="Y12">
-        <v>-0.2367734791394356</v>
+        <v>-0.03910958898851414</v>
       </c>
       <c r="Z12">
-        <v>0.06111715870788359</v>
+        <v>0.09505865191758342</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04304404587160094</v>
+        <v>0.03688595795864234</v>
       </c>
       <c r="AC12">
-        <v>-0.04304404587160094</v>
+        <v>-0.03688595795864234</v>
       </c>
       <c r="AD12">
-        <v>142.5</v>
+        <v>389.7</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>142.5</v>
+        <v>389.7</v>
       </c>
       <c r="AG12">
-        <v>135.11</v>
+        <v>318.3</v>
       </c>
       <c r="AH12">
-        <v>0.7132132132132132</v>
+        <v>0.8531085814360772</v>
       </c>
       <c r="AI12">
-        <v>0.7604055496264674</v>
+        <v>0.5492600422832981</v>
       </c>
       <c r="AJ12">
-        <v>0.7021984304350085</v>
+        <v>0.8258951738453554</v>
       </c>
       <c r="AK12">
-        <v>0.7505694128103995</v>
+        <v>0.4988246356370475</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1915,7 +1912,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PT Wahana Ottomitra Multiartha Tbk (IDX:WOMF)</t>
+          <t>PT Intan Baruprana Finance Tbk (IDX:IBFN)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1924,10 +1921,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.102</v>
-      </c>
-      <c r="E13">
-        <v>0.281</v>
+        <v>-0.148</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1942,85 +1936,82 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.4</v>
+        <v>-12.2</v>
       </c>
       <c r="L13">
-        <v>0.1757990867579909</v>
+        <v>-3.588235294117647</v>
       </c>
       <c r="M13">
-        <v>4.33</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.06257225433526012</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.2811688311688312</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>4.33</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.06257225433526012</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.2811688311688312</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>46.5</v>
+        <v>0.591</v>
       </c>
       <c r="V13">
-        <v>0.6719653179190751</v>
+        <v>0.02003389830508474</v>
       </c>
       <c r="W13">
-        <v>0.2086720867208672</v>
+        <v>-0.4250871080139373</v>
       </c>
       <c r="X13">
-        <v>0.0824665462003943</v>
+        <v>0.04159925543364322</v>
       </c>
       <c r="Y13">
-        <v>0.1262055405204729</v>
+        <v>-0.4666863634475805</v>
       </c>
       <c r="Z13">
-        <v>0.1618027336534909</v>
+        <v>0.03344152650732763</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04346412296863476</v>
+        <v>0.03783227551640217</v>
       </c>
       <c r="AC13">
-        <v>-0.04346412296863476</v>
+        <v>-0.03783227551640217</v>
       </c>
       <c r="AD13">
-        <v>459.2</v>
+        <v>69.3</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>459.2</v>
+        <v>69.3</v>
       </c>
       <c r="AG13">
-        <v>412.7</v>
+        <v>68.709</v>
       </c>
       <c r="AH13">
-        <v>0.8690386071158214</v>
+        <v>0.701417004048583</v>
       </c>
       <c r="AI13">
-        <v>0.8367346938775511</v>
+        <v>0.821090047393365</v>
       </c>
       <c r="AJ13">
-        <v>0.8564017431002283</v>
+        <v>0.6996201977415512</v>
       </c>
       <c r="AK13">
-        <v>0.8216205454907426</v>
+        <v>0.8198284193821667</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2037,7 +2028,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PT Intan Baruprana Finance Tbk (IDX:IBFN)</t>
+          <t>PT. Verena Multi Finance Tbk (IDX:VRNA)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2046,7 +2037,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.00316</v>
+        <v>0.158</v>
+      </c>
+      <c r="E14">
+        <v>0.423</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2061,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>-5.27</v>
+        <v>2.27</v>
       </c>
       <c r="L14">
-        <v>-0.738095238095238</v>
+        <v>0.2121495327102804</v>
       </c>
       <c r="M14">
-        <v>0.108</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.004090909090909091</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>-0.02049335863377609</v>
+        <v>-0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2082,64 +2076,61 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14">
-        <v>0.108</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1.43</v>
+        <v>10.9</v>
       </c>
       <c r="V14">
-        <v>0.05416666666666667</v>
+        <v>0.2558685446009389</v>
       </c>
       <c r="W14">
-        <v>-0.1944649446494465</v>
+        <v>0.05055679287305122</v>
       </c>
       <c r="X14">
-        <v>0.05215851089096944</v>
+        <v>0.04863712640987103</v>
       </c>
       <c r="Y14">
-        <v>-0.2466234555404159</v>
+        <v>0.001919666463180196</v>
       </c>
       <c r="Z14">
-        <v>0.06543854825405554</v>
+        <v>0.05944114215876894</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04350660958907852</v>
+        <v>0.03924239760278953</v>
       </c>
       <c r="AC14">
-        <v>-0.04350660958907852</v>
+        <v>-0.03924239760278953</v>
       </c>
       <c r="AD14">
-        <v>74.40000000000001</v>
+        <v>132.8</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>74.40000000000001</v>
+        <v>132.8</v>
       </c>
       <c r="AG14">
-        <v>72.97</v>
+        <v>121.9</v>
       </c>
       <c r="AH14">
-        <v>0.738095238095238</v>
+        <v>0.7571265678449259</v>
       </c>
       <c r="AI14">
-        <v>0.7216294859359845</v>
+        <v>0.7579908675799086</v>
       </c>
       <c r="AJ14">
-        <v>0.7343262554090771</v>
+        <v>0.741033434650456</v>
       </c>
       <c r="AK14">
-        <v>0.7177141733057932</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2156,7 +2147,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PT Magna Investama Mandiri Tbk (IDX:MGNA)</t>
+          <t>PT Buana Finance Tbk. (IDX:BBLD)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2165,7 +2156,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.042</v>
+        <v>0.0102</v>
+      </c>
+      <c r="E15">
+        <v>-0.171</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2180,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-2.57</v>
+        <v>2.06</v>
       </c>
       <c r="L15">
-        <v>-0.5223577235772358</v>
+        <v>0.1150837988826816</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -2192,7 +2186,7 @@
         <v>-0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P15">
         <v>-0</v>
@@ -2201,61 +2195,61 @@
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0.034</v>
+        <v>29.2</v>
       </c>
       <c r="V15">
-        <v>0.009418282548476455</v>
+        <v>0.6697247706422018</v>
       </c>
       <c r="W15">
-        <v>-1.576687116564417</v>
+        <v>0.02437869822485207</v>
       </c>
       <c r="X15">
-        <v>0.05595503386134477</v>
+        <v>0.06222832627478929</v>
       </c>
       <c r="Y15">
-        <v>-1.632642150425762</v>
+        <v>-0.03784962804993722</v>
       </c>
       <c r="Z15">
-        <v>0.6265121609575959</v>
+        <v>0.05284912902273398</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04404854773489869</v>
+        <v>0.04087075215060392</v>
       </c>
       <c r="AC15">
-        <v>-0.04404854773489869</v>
+        <v>-0.04087075215060392</v>
       </c>
       <c r="AD15">
-        <v>11.9</v>
+        <v>200.6</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>11.9</v>
+        <v>200.6</v>
       </c>
       <c r="AG15">
-        <v>11.866</v>
+        <v>171.4</v>
       </c>
       <c r="AH15">
-        <v>0.7672469374597034</v>
+        <v>0.8214578214578214</v>
       </c>
       <c r="AI15">
-        <v>1.117370892018779</v>
+        <v>0.713371266002845</v>
       </c>
       <c r="AJ15">
-        <v>0.7667355905918842</v>
+        <v>0.7972093023255814</v>
       </c>
       <c r="AK15">
-        <v>1.117746797287114</v>
+        <v>0.6801587301587302</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2281,10 +2275,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.173</v>
-      </c>
-      <c r="E16">
-        <v>-0.09320000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2299,28 +2290,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.22</v>
+        <v>-3.49</v>
       </c>
       <c r="L16">
-        <v>0.02948142098815843</v>
+        <v>-0.01322470632815461</v>
       </c>
       <c r="M16">
-        <v>0.373</v>
+        <v>0.031</v>
       </c>
       <c r="N16">
-        <v>0.003075020610057708</v>
+        <v>0.0001213307240704501</v>
       </c>
       <c r="O16">
-        <v>0.05166204986149585</v>
+        <v>-0.008882521489971346</v>
       </c>
       <c r="P16">
-        <v>0.373</v>
+        <v>0.031</v>
       </c>
       <c r="Q16">
-        <v>0.003075020610057708</v>
+        <v>0.0001213307240704501</v>
       </c>
       <c r="R16">
-        <v>0.05166204986149585</v>
+        <v>-0.008882521489971346</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2329,61 +2320,61 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>37.6</v>
+        <v>94.7</v>
       </c>
       <c r="V16">
-        <v>0.3099752679307502</v>
+        <v>0.3706457925636008</v>
       </c>
       <c r="W16">
-        <v>0.04222222222222222</v>
+        <v>-0.01617987946221604</v>
       </c>
       <c r="X16">
-        <v>0.1196264654219433</v>
+        <v>0.06858083265855332</v>
       </c>
       <c r="Y16">
-        <v>-0.07740424319972108</v>
+        <v>-0.08476071212076935</v>
       </c>
       <c r="Z16">
-        <v>0.2154103263259741</v>
+        <v>0.1701702347175651</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.04424751589818934</v>
+        <v>0.04136861201809333</v>
       </c>
       <c r="AC16">
-        <v>-0.04424751589818934</v>
+        <v>-0.04136861201809333</v>
       </c>
       <c r="AD16">
-        <v>1372.7</v>
+        <v>1352.7</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1372.7</v>
+        <v>1352.7</v>
       </c>
       <c r="AG16">
-        <v>1335.1</v>
+        <v>1258</v>
       </c>
       <c r="AH16">
-        <v>0.9188085676037484</v>
+        <v>0.8411267255316502</v>
       </c>
       <c r="AI16">
-        <v>0.8518679409209383</v>
+        <v>0.8473440240541218</v>
       </c>
       <c r="AJ16">
-        <v>0.916712441636913</v>
+        <v>0.8311859927320779</v>
       </c>
       <c r="AK16">
-        <v>0.8483288855000636</v>
+        <v>0.8377172537790504</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>-2.33</v>
+        <v>-3.64</v>
       </c>
       <c r="AQ16">
         <v>-0</v>
